--- a/01-22/addr.xlsx
+++ b/01-22/addr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,18 @@
   </sheets>
   <definedNames>
     <definedName name="变量名">Sheet1!$A:$A</definedName>
+    <definedName name="长度">Sheet1!$C:$C</definedName>
     <definedName name="地址">Sheet1!$B:$B</definedName>
     <definedName name="功能">Sheet1!$D:$D</definedName>
     <definedName name="宏名">Sheet1!$A:$A</definedName>
     <definedName name="页">Sheet1!$E:$E</definedName>
-    <definedName name="长度">Sheet1!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="687">
   <si>
     <t>0x0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x008b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0037</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CO历史数据表格第几页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2725,6 +2717,58 @@
   </si>
   <si>
     <t>良好良好返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2856,14 +2900,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A4"/>
+        <a:sysClr val="window" lastClr="ECE9D8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2898,7 +2942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2933,7 +2977,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3144,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="J239" sqref="J239"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3533,7 +3577,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3567,7 +3611,7 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -3601,7 +3645,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -3635,7 +3679,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -3669,7 +3713,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -3686,7 +3730,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>674</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -3703,7 +3747,7 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -3717,16 +3761,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>675</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -3734,16 +3778,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>676</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -3751,16 +3795,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -3768,16 +3812,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -3785,16 +3829,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -3802,16 +3846,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -3819,16 +3863,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -3836,16 +3880,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -3853,16 +3897,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -3870,16 +3914,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -3887,16 +3931,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3904,16 +3948,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3921,16 +3965,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3938,16 +3982,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3955,16 +3999,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3972,16 +4016,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>145</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3989,16 +4033,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -4006,16 +4050,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -4023,16 +4067,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -4040,16 +4084,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -4057,16 +4101,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57">
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -4074,16 +4118,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -4091,16 +4135,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59">
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -4108,16 +4152,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -4125,16 +4169,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -4142,16 +4186,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -4159,16 +4203,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C63">
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -4176,16 +4220,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -4193,16 +4237,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65">
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -4210,16 +4254,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -4227,16 +4271,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67">
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -4244,16 +4288,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -4261,16 +4305,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69">
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -4278,16 +4322,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -4295,16 +4339,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>678</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -4312,16 +4356,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>679</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -4329,16 +4373,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -4346,16 +4390,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -4363,16 +4407,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -4380,16 +4424,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -4397,16 +4441,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -4414,16 +4458,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -4431,16 +4475,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -4448,16 +4492,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -4465,16 +4509,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C82">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -4482,16 +4526,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -4499,16 +4543,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C84">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -4516,16 +4560,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -4533,16 +4577,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C86">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -4550,16 +4594,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4567,16 +4611,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C88">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4584,16 +4628,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -4601,16 +4645,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -4618,16 +4662,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -4635,16 +4679,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -4652,16 +4696,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>681</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -4669,16 +4713,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -4686,16 +4730,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -4703,16 +4747,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -4720,16 +4764,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -4737,16 +4781,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C99">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -4754,16 +4798,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -4771,16 +4815,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B101" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C101">
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -4788,16 +4832,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -4805,16 +4849,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C103">
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -4822,16 +4866,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E104">
         <v>6</v>
@@ -4839,16 +4883,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C105">
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -4856,16 +4900,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E106">
         <v>6</v>
@@ -4873,16 +4917,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C107">
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -4890,16 +4934,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C108">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -4907,16 +4951,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C109">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E109">
         <v>6</v>
@@ -4924,16 +4968,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -4941,16 +4985,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C111">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -4958,16 +5002,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -4975,16 +5019,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>682</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -4992,16 +5036,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>677</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -5009,16 +5053,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E116">
         <v>7</v>
@@ -5026,16 +5070,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E117">
         <v>7</v>
@@ -5043,16 +5087,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E118">
         <v>7</v>
@@ -5060,16 +5104,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E119">
         <v>7</v>
@@ -5077,16 +5121,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C120">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E120">
         <v>7</v>
@@ -5094,16 +5138,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E121">
         <v>7</v>
@@ -5111,16 +5155,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C122">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E122">
         <v>7</v>
@@ -5128,16 +5172,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -5145,16 +5189,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B124" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C124">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -5162,16 +5206,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -5179,16 +5223,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C126">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -5196,16 +5240,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E127">
         <v>7</v>
@@ -5213,16 +5257,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C128">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E128">
         <v>7</v>
@@ -5230,16 +5274,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E129">
         <v>7</v>
@@ -5247,16 +5291,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C130">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -5264,16 +5308,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E131">
         <v>7</v>
@@ -5281,16 +5325,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E132">
         <v>7</v>
@@ -5298,16 +5342,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E133">
         <v>7</v>
@@ -5315,16 +5359,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B134" t="s">
-        <v>100</v>
+        <v>683</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E134">
         <v>7</v>
@@ -5332,16 +5376,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>684</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E135">
         <v>7</v>
@@ -5349,16 +5393,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E137">
         <v>8</v>
@@ -5366,16 +5410,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E138">
         <v>8</v>
@@ -5383,16 +5427,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E139">
         <v>8</v>
@@ -5400,16 +5444,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -5417,16 +5461,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C141">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -5434,16 +5478,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C142">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E142">
         <v>8</v>
@@ -5451,16 +5495,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C143">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E143">
         <v>8</v>
@@ -5468,16 +5512,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -5485,16 +5529,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C145">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E145">
         <v>8</v>
@@ -5502,16 +5546,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C146">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E146">
         <v>8</v>
@@ -5519,16 +5563,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C147">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E147">
         <v>8</v>
@@ -5536,16 +5580,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -5553,16 +5597,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C149">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E149">
         <v>8</v>
@@ -5570,16 +5614,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E150">
         <v>8</v>
@@ -5587,16 +5631,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B151" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C151">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E151">
         <v>8</v>
@@ -5604,16 +5648,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B152" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E152">
         <v>8</v>
@@ -5621,16 +5665,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B153" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C153">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E153">
         <v>8</v>
@@ -5638,16 +5682,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B154" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E154">
         <v>8</v>
@@ -5655,16 +5699,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B155" t="s">
-        <v>100</v>
+        <v>685</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E155">
         <v>8</v>
@@ -5672,16 +5716,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B156" t="s">
-        <v>100</v>
+        <v>686</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E156">
         <v>8</v>
@@ -5689,16 +5733,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>434</v>
+      </c>
+      <c r="B158" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
         <v>436</v>
-      </c>
-      <c r="B158" t="s">
-        <v>437</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>438</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -5706,16 +5750,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C160">
         <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E160">
         <v>10</v>
@@ -5723,16 +5767,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B161" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C161">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -5740,16 +5784,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C162">
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -5757,16 +5801,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B163" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -5774,16 +5818,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
+        <v>448</v>
+      </c>
+      <c r="B165" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
         <v>450</v>
-      </c>
-      <c r="B165" t="s">
-        <v>451</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>452</v>
       </c>
       <c r="E165">
         <v>11</v>
@@ -5791,16 +5835,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B167" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C167">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -5808,16 +5852,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B168" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C168">
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -5825,16 +5869,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C169">
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E169">
         <v>12</v>
@@ -5842,16 +5886,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C170">
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E170">
         <v>12</v>
@@ -5859,16 +5903,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C171">
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E171">
         <v>12</v>
@@ -5876,16 +5920,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B172" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C172">
         <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E172">
         <v>12</v>
@@ -5893,16 +5937,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
+        <v>469</v>
+      </c>
+      <c r="B173" t="s">
+        <v>470</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
         <v>471</v>
-      </c>
-      <c r="B173" t="s">
-        <v>472</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
-        <v>473</v>
       </c>
       <c r="E173">
         <v>12</v>
@@ -5910,16 +5954,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
+        <v>472</v>
+      </c>
+      <c r="B174" t="s">
+        <v>473</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
         <v>474</v>
-      </c>
-      <c r="B174" t="s">
-        <v>475</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
-        <v>476</v>
       </c>
       <c r="E174">
         <v>12</v>
@@ -5927,16 +5971,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
+        <v>475</v>
+      </c>
+      <c r="B175" t="s">
+        <v>476</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
         <v>477</v>
-      </c>
-      <c r="B175" t="s">
-        <v>478</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>479</v>
       </c>
       <c r="E175">
         <v>12</v>
@@ -5944,16 +5988,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B176" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E176">
         <v>12</v>
@@ -5961,16 +6005,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E177">
         <v>12</v>
@@ -5978,16 +6022,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -5995,16 +6039,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E179">
         <v>12</v>
@@ -6012,16 +6056,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B180" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E180">
         <v>12</v>
@@ -6029,16 +6073,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
+        <v>493</v>
+      </c>
+      <c r="B182" t="s">
+        <v>494</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
         <v>495</v>
-      </c>
-      <c r="B182" t="s">
-        <v>496</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
-        <v>497</v>
       </c>
       <c r="E182">
         <v>13</v>
@@ -6046,16 +6090,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
+        <v>496</v>
+      </c>
+      <c r="B183" t="s">
+        <v>497</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>498</v>
-      </c>
-      <c r="B183" t="s">
-        <v>499</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
-        <v>500</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6063,16 +6107,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
+        <v>499</v>
+      </c>
+      <c r="B184" t="s">
+        <v>500</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>501</v>
-      </c>
-      <c r="B184" t="s">
-        <v>502</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
-        <v>503</v>
       </c>
       <c r="E184">
         <v>13</v>
@@ -6080,16 +6124,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
+        <v>502</v>
+      </c>
+      <c r="B185" t="s">
+        <v>503</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
         <v>504</v>
-      </c>
-      <c r="B185" t="s">
-        <v>505</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
-        <v>506</v>
       </c>
       <c r="E185">
         <v>13</v>
@@ -6097,16 +6141,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B187" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E187">
         <v>14</v>
@@ -6114,16 +6158,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B188" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -6131,16 +6175,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B189" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E189">
         <v>14</v>
@@ -6148,16 +6192,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B190" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E190">
         <v>14</v>
@@ -6165,16 +6209,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B191" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E191">
         <v>14</v>
@@ -6182,16 +6226,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B192" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E192">
         <v>14</v>
@@ -6199,16 +6243,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B193" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E193">
         <v>14</v>
@@ -6216,16 +6260,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B194" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E194">
         <v>14</v>
@@ -6233,16 +6277,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B195" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E195">
         <v>14</v>
@@ -6250,16 +6294,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B196" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E196">
         <v>14</v>
@@ -6267,16 +6311,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B197" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E197">
         <v>14</v>
@@ -6284,16 +6328,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E198">
         <v>14</v>
@@ -6301,16 +6345,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B199" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E199">
         <v>14</v>
@@ -6318,16 +6362,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B200" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E200">
         <v>14</v>
@@ -6335,16 +6379,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B201" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E201">
         <v>14</v>
@@ -6352,16 +6396,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B202" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E202">
         <v>14</v>
@@ -6369,16 +6413,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B203" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E203">
         <v>14</v>
@@ -6386,16 +6430,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B204" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E204">
         <v>14</v>
@@ -6403,16 +6447,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
+        <v>559</v>
+      </c>
+      <c r="B205" t="s">
+        <v>560</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>561</v>
-      </c>
-      <c r="B205" t="s">
-        <v>562</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
-        <v>563</v>
       </c>
       <c r="E205">
         <v>14</v>
@@ -6420,16 +6464,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
+        <v>562</v>
+      </c>
+      <c r="B207" t="s">
+        <v>563</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
         <v>564</v>
-      </c>
-      <c r="B207" t="s">
-        <v>565</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
-        <v>566</v>
       </c>
       <c r="E207">
         <v>16</v>
@@ -6437,16 +6481,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
+        <v>565</v>
+      </c>
+      <c r="B209" t="s">
+        <v>566</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
         <v>567</v>
-      </c>
-      <c r="B209" t="s">
-        <v>568</v>
-      </c>
-      <c r="C209">
-        <v>4</v>
-      </c>
-      <c r="D209" t="s">
-        <v>569</v>
       </c>
       <c r="E209">
         <v>17</v>
@@ -6454,16 +6498,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B210" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C210">
         <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E210">
         <v>17</v>
@@ -6471,16 +6515,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B211" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C211">
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E211">
         <v>17</v>
@@ -6488,16 +6532,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
+        <v>574</v>
+      </c>
+      <c r="B212" t="s">
+        <v>575</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
         <v>576</v>
-      </c>
-      <c r="B212" t="s">
-        <v>577</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>578</v>
       </c>
       <c r="E212">
         <v>17</v>
@@ -6505,16 +6549,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
+        <v>577</v>
+      </c>
+      <c r="B213" t="s">
+        <v>578</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
         <v>579</v>
-      </c>
-      <c r="B213" t="s">
-        <v>580</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>581</v>
       </c>
       <c r="E213">
         <v>17</v>
@@ -6522,16 +6566,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
+        <v>580</v>
+      </c>
+      <c r="B214" t="s">
+        <v>581</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
         <v>582</v>
-      </c>
-      <c r="B214" t="s">
-        <v>583</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>584</v>
       </c>
       <c r="E214">
         <v>17</v>
@@ -6539,16 +6583,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B216" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C216">
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E216">
         <v>18</v>
@@ -6556,16 +6600,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B217" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C217">
         <v>32</v>
       </c>
       <c r="D217" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E217">
         <v>18</v>
@@ -6573,16 +6617,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B218" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C218">
         <v>32</v>
       </c>
       <c r="D218" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E218">
         <v>18</v>
@@ -6590,16 +6634,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B219" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C219">
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E219">
         <v>18</v>
@@ -6607,16 +6651,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B220" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C220">
         <v>32</v>
       </c>
       <c r="D220" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E220">
         <v>18</v>
@@ -6624,16 +6668,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B221" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C221">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E221">
         <v>18</v>
@@ -6641,16 +6685,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
+        <v>601</v>
+      </c>
+      <c r="B222" t="s">
+        <v>602</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
         <v>603</v>
-      </c>
-      <c r="B222" t="s">
-        <v>604</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>605</v>
       </c>
       <c r="E222">
         <v>18</v>
@@ -6658,16 +6702,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
+        <v>604</v>
+      </c>
+      <c r="B224" t="s">
+        <v>605</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
         <v>606</v>
-      </c>
-      <c r="B224" t="s">
-        <v>607</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224" t="s">
-        <v>608</v>
       </c>
       <c r="E224">
         <v>27</v>
@@ -6675,16 +6719,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
+        <v>607</v>
+      </c>
+      <c r="B226" t="s">
+        <v>608</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
         <v>609</v>
-      </c>
-      <c r="B226" t="s">
-        <v>610</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226" t="s">
-        <v>611</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -6692,16 +6736,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
+        <v>610</v>
+      </c>
+      <c r="B228" t="s">
+        <v>611</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
         <v>612</v>
-      </c>
-      <c r="B228" t="s">
-        <v>613</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228" t="s">
-        <v>614</v>
       </c>
       <c r="E228">
         <v>29</v>
@@ -6709,16 +6753,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C230">
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -6726,16 +6770,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C231">
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E231">
         <v>30</v>
@@ -6743,16 +6787,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B232" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E232">
         <v>30</v>
@@ -6760,16 +6804,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
+        <v>621</v>
+      </c>
+      <c r="B233" t="s">
+        <v>622</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
         <v>623</v>
-      </c>
-      <c r="B233" t="s">
-        <v>624</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233" t="s">
-        <v>625</v>
       </c>
       <c r="E233">
         <v>30</v>
@@ -6777,16 +6821,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
+        <v>624</v>
+      </c>
+      <c r="B234" t="s">
+        <v>625</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
         <v>626</v>
-      </c>
-      <c r="B234" t="s">
-        <v>627</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234" t="s">
-        <v>628</v>
       </c>
       <c r="E234">
         <v>30</v>
@@ -6794,16 +6838,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E235">
         <v>30</v>
@@ -6811,16 +6855,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
         <v>632</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237" t="s">
-        <v>634</v>
       </c>
       <c r="E237">
         <v>31</v>
@@ -6828,16 +6872,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
+        <v>633</v>
+      </c>
+      <c r="B238" t="s">
+        <v>634</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
         <v>635</v>
-      </c>
-      <c r="B238" t="s">
-        <v>636</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238" t="s">
-        <v>637</v>
       </c>
       <c r="E238">
         <v>31</v>
@@ -6845,16 +6889,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
+        <v>636</v>
+      </c>
+      <c r="B239" t="s">
+        <v>637</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
         <v>638</v>
-      </c>
-      <c r="B239" t="s">
-        <v>639</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239" t="s">
-        <v>640</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -6862,16 +6906,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
+        <v>639</v>
+      </c>
+      <c r="B240" t="s">
+        <v>640</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
         <v>641</v>
-      </c>
-      <c r="B240" t="s">
-        <v>642</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240" t="s">
-        <v>643</v>
       </c>
       <c r="E240">
         <v>31</v>
@@ -6879,16 +6923,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B241" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E241">
         <v>31</v>
@@ -6896,16 +6940,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
+        <v>644</v>
+      </c>
+      <c r="B243" t="s">
+        <v>645</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
         <v>646</v>
-      </c>
-      <c r="B243" t="s">
-        <v>647</v>
-      </c>
-      <c r="C243">
-        <v>4</v>
-      </c>
-      <c r="D243" t="s">
-        <v>648</v>
       </c>
       <c r="E243">
         <v>33</v>
@@ -6913,16 +6957,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B244" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E244">
         <v>33</v>
@@ -6930,16 +6974,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B245" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E245">
         <v>33</v>
@@ -6947,16 +6991,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B246" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E246">
         <v>33</v>
@@ -6964,16 +7008,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B247" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E247">
         <v>33</v>
@@ -6981,16 +7025,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B248" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E248">
         <v>33</v>
@@ -6998,16 +7042,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
+        <v>662</v>
+      </c>
+      <c r="B249" t="s">
+        <v>663</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
         <v>664</v>
-      </c>
-      <c r="B249" t="s">
-        <v>665</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249" t="s">
-        <v>666</v>
       </c>
       <c r="E249">
         <v>33</v>
@@ -7015,16 +7059,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
+        <v>665</v>
+      </c>
+      <c r="B250" t="s">
+        <v>666</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
         <v>667</v>
-      </c>
-      <c r="B250" t="s">
-        <v>668</v>
-      </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250" t="s">
-        <v>669</v>
       </c>
       <c r="E250">
         <v>33</v>
@@ -7032,16 +7076,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
+        <v>668</v>
+      </c>
+      <c r="B251" t="s">
+        <v>669</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
         <v>670</v>
-      </c>
-      <c r="B251" t="s">
-        <v>671</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-      <c r="D251" t="s">
-        <v>672</v>
       </c>
       <c r="E251">
         <v>33</v>
@@ -7049,16 +7093,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B253" t="s">
+        <v>671</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
         <v>673</v>
-      </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-      <c r="D253" t="s">
-        <v>675</v>
       </c>
       <c r="E253">
         <v>35</v>

--- a/01-22/addr.xlsx
+++ b/01-22/addr.xlsx
@@ -764,7 +764,1975 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00e1</t>
+    <t>0x00dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x015a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x015b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x015c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_HCHO_LAST_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_HCHO_NEXT_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_HCHO_REFRESH_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_HCHO_LIST_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_TIME_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_LIST_DATA_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_PAGE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HCHO_PAGE_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据上一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据下一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据刷新按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格时间6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格数据6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO历史数据表格共多少页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x015D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x016D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01E5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01EA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01EB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEMP_LAST_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEMP_NEXT_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEMP_REFRESH_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEMP_LIST_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_TIME_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_LIST_DATA_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_PAGE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TEMP_PAGE_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据上一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据下一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据刷新按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格时间6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格数据6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP历史数据表格共多少页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01FD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x023D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x024D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x027A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x027B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x027C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SHIDU_LAST_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SHIDU_NEXT_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SHIDU_REFRESH_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SHIDU_LIST_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_TIME_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_LIST_DATA_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_PAGE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SHIDU_PAGE_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据上一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据下一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据刷新按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格时间6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格数据6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDU历史数据表格共多少页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x027D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x028D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x030A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x030B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x030C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PM25_LAST_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PM25_NEXT_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PM25_REFRESH_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PM25_LIST_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_TIME_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_LIST_DATA_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_PAGE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PM25_PAGE_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格共多少页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格时间0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据表格返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据刷新按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据下一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25历史数据上一页按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x040D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x041D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x045D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x046D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好故障返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04c6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PRODUCT_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_COMPANY_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x052b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x053f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择确定按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择1按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择2按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择3按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择4按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择5按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择6按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SETTING_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x055f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选甲醛1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_HCHO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_TEMP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_SHIDU_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_PM25_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_HCHO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_TEMP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_SHIDU_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_PM25_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_HCHO_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_CO2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_TEMP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_SHIDU_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_PM25_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO2 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选TEMP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选SHIDU_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选PM25_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选HCHO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选TEMP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选SHIDU_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选PM25_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选HCHO_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选CO2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选TEMP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选SHIDU_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选PM25_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SET_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x057B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器选择返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_WIFI_SET_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x057c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi设置成功返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_XFER_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x057d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi/gprs传输选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_AP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi路由器名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_AP_PASSWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi路由器密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SELECT_GPRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择gprs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SELECT_WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SELECT_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INSTALL_PLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_INDUSTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x061c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_CONTACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x063c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x064c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SLEEP_WAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x064d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x064e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障良好返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x064f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障故障返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_NAME_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_USER_PWD_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户名密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_NAME_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_PWD_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户名密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_OK_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_RETURN_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SENSOR_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入传感器设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_XFER_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入通讯设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SYS_SET_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_HOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TIME_SECOND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_CHANGE_MANUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_CHANGE_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_CHANGE_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间设置返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好良好返回按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00f9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,2003 +2740,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00f5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x012d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x011d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x015a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x015b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x015c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_HCHO_LAST_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_HCHO_NEXT_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_HCHO_REFRESH_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_HCHO_LIST_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_TIME_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_LIST_DATA_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_PAGE_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_HCHO_PAGE_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据上一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据下一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据刷新按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格时间6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格数据6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHO历史数据表格共多少页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x015D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x016D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0171</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01A9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01E5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01E9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01EA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01EB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01EC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TEMP_LAST_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TEMP_NEXT_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TEMP_REFRESH_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TEMP_LIST_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_TIME_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_LIST_DATA_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_PAGE_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TEMP_PAGE_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据上一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据下一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据刷新按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格时间6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格数据6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP历史数据表格共多少页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01ED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01FD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0239</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x023D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x024D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0261</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0279</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x027A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x027B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x027C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SHIDU_LAST_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SHIDU_NEXT_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SHIDU_REFRESH_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SHIDU_LIST_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_TIME_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_LIST_DATA_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_PAGE_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_SHIDU_PAGE_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据上一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据下一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据刷新按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格时间6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格数据6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIDU历史数据表格共多少页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x027D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x028D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02B5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02F5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x030A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x030B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x030C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_PM25_LAST_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_PM25_NEXT_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_PM25_REFRESH_PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_PM25_LIST_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_TIME_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_LIST_DATA_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_PAGE_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PM25_PAGE_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格共多少页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格数据0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格时间0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据表格返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据刷新按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据下一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25历史数据上一页按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x040D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x041D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0449</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x045D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x046D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0471</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0485</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x049A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x049B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x049C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_STATE_RETURN_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x049d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良好故障返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PRODUCT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x049e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PRODUCT_MODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04c6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_PRODUCT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_PRODUCT_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品信息返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_COMPANY_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0516</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0517</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x052b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x053f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INTERFACE_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0549</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0553</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择确定按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0554</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择1按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择2按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择3按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择4按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择5按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择6按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0556</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0558</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0559</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TUN_ZERO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调零按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTERFACE_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SETTING_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x055f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选甲醛1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_HCHO_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_TEMP_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_SHIDU_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_PM25_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_HCHO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_TEMP_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_SHIDU_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_PM25_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_HCHO_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_CO2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_TEMP_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_SHIDU_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_PM25_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0561</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0562</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0564</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0566</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0568</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x056f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0570</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO2 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选TEMP_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选SHIDU_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选PM25_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选HCHO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选TEMP_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选SHIDU_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选PM25_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选HCHO_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选CO2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选TEMP_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选SHIDU_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选PM25_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SET_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x057B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器选择返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_WIFI_SET_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x057c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi设置成功返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_XFER_MODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x057d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi/gprs传输选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_AP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0581</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi路由器名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_AP_PASSWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0595</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi路由器密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SELECT_GPRS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05a9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择gprs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SELECT_WIFI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SELECT_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INSTALL_PLACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_INDUSTRY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05dc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_PHONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x061c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_CONTACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x063c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户接口人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x064c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SLEEP_WAKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x064d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_STATE_RETURN_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x064e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障良好返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_STATE_RETURN_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x064f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障故障返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_NAME_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_USER_PWD_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0660</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验用户名密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_NAME_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_PWD_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0660</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入用户名密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_OK_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_RETURN_VERIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SENSOR_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0672</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0671</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入传感器设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_XFER_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0673</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入通讯设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TIME_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入时间设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_USER_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SYS_SET_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0676</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_MONTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06a7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_HOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06a9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_TIME_SECOND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TIME_CHANGE_MANUL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TIME_CHANGE_SERVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_TIME_CHANGE_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间设置返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_STATE_RETURN_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良好良好返回按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06b3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06c7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06cb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06cf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06d7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06e7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06eb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06ef</t>
+    <t>0x010f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x011f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x013b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x014b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3188,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3730,7 +3730,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -3764,7 +3764,7 @@
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -3781,7 +3781,7 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4036,7 +4036,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4138,7 +4138,7 @@
         <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>675</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -4155,7 +4155,7 @@
         <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>676</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4172,7 +4172,7 @@
         <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -4189,7 +4189,7 @@
         <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>678</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4206,7 +4206,7 @@
         <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>679</v>
       </c>
       <c r="C63">
         <v>16</v>
@@ -4223,7 +4223,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>680</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4240,7 +4240,7 @@
         <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>681</v>
       </c>
       <c r="C65">
         <v>16</v>
@@ -4257,7 +4257,7 @@
         <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>682</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4274,7 +4274,7 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>683</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -4291,7 +4291,7 @@
         <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>684</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4308,7 +4308,7 @@
         <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>685</v>
       </c>
       <c r="C69">
         <v>16</v>
@@ -4325,7 +4325,7 @@
         <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>686</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4359,7 +4359,7 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -4373,16 +4373,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -4390,16 +4390,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -4407,16 +4407,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -4424,16 +4424,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -4458,16 +4458,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -4475,16 +4475,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -4509,16 +4509,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C82">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -4526,16 +4526,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -4543,16 +4543,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C84">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -4560,16 +4560,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C86">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -4594,16 +4594,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4611,16 +4611,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C88">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4628,16 +4628,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -4645,16 +4645,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -4662,16 +4662,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -4679,16 +4679,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -4696,16 +4696,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -4747,16 +4747,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -4764,16 +4764,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -4781,16 +4781,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C99">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C101">
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -4832,16 +4832,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -4849,16 +4849,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C103">
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -4866,16 +4866,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E104">
         <v>6</v>
@@ -4883,16 +4883,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C105">
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -4900,16 +4900,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B106" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E106">
         <v>6</v>
@@ -4917,16 +4917,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C107">
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -4934,16 +4934,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C108">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -4951,16 +4951,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C109">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E109">
         <v>6</v>
@@ -4968,16 +4968,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -4985,16 +4985,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C111">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -5002,16 +5002,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -5036,16 +5036,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -5053,16 +5053,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B116" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E116">
         <v>7</v>
@@ -5070,16 +5070,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E117">
         <v>7</v>
@@ -5087,16 +5087,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E118">
         <v>7</v>
@@ -5104,16 +5104,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E119">
         <v>7</v>
@@ -5121,16 +5121,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C120">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E120">
         <v>7</v>
@@ -5138,16 +5138,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E121">
         <v>7</v>
@@ -5155,16 +5155,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C122">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E122">
         <v>7</v>
@@ -5172,16 +5172,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -5189,16 +5189,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C124">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -5223,16 +5223,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C126">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -5240,16 +5240,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E127">
         <v>7</v>
@@ -5257,16 +5257,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B128" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C128">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E128">
         <v>7</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B129" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E129">
         <v>7</v>
@@ -5291,16 +5291,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B130" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C130">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -5308,16 +5308,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E131">
         <v>7</v>
@@ -5325,16 +5325,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E132">
         <v>7</v>
@@ -5342,16 +5342,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B133" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E133">
         <v>7</v>
@@ -5359,16 +5359,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B134" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C134">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E134">
         <v>7</v>
@@ -5376,16 +5376,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B135" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E135">
         <v>7</v>
@@ -5393,16 +5393,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B137" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E137">
         <v>8</v>
@@ -5410,16 +5410,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E138">
         <v>8</v>
@@ -5427,16 +5427,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B139" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E139">
         <v>8</v>
@@ -5444,16 +5444,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B140" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -5461,16 +5461,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C141">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -5478,16 +5478,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B142" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C142">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E142">
         <v>8</v>
@@ -5495,16 +5495,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C143">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E143">
         <v>8</v>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B144" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -5529,16 +5529,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B145" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C145">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E145">
         <v>8</v>
@@ -5546,16 +5546,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C146">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E146">
         <v>8</v>
@@ -5563,16 +5563,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B147" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C147">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E147">
         <v>8</v>
@@ -5580,16 +5580,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B148" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -5597,16 +5597,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B149" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C149">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E149">
         <v>8</v>
@@ -5614,16 +5614,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E150">
         <v>8</v>
@@ -5631,16 +5631,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B151" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C151">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E151">
         <v>8</v>
@@ -5648,16 +5648,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E152">
         <v>8</v>
@@ -5665,16 +5665,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B153" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C153">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E153">
         <v>8</v>
@@ -5682,16 +5682,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E154">
         <v>8</v>
@@ -5699,16 +5699,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B155" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E155">
         <v>8</v>
@@ -5716,16 +5716,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B156" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E156">
         <v>8</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -5750,16 +5750,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B160" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C160">
         <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E160">
         <v>10</v>
@@ -5767,16 +5767,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B161" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C161">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -5784,16 +5784,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B162" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C162">
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -5801,16 +5801,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B163" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -5818,16 +5818,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E165">
         <v>11</v>
@@ -5835,16 +5835,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C167">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -5852,16 +5852,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B168" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C168">
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -5869,16 +5869,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B169" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C169">
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E169">
         <v>12</v>
@@ -5886,16 +5886,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B170" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C170">
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E170">
         <v>12</v>
@@ -5903,16 +5903,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C171">
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E171">
         <v>12</v>
@@ -5920,16 +5920,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B172" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C172">
         <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E172">
         <v>12</v>
@@ -5937,16 +5937,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B173" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E173">
         <v>12</v>
@@ -5954,16 +5954,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E174">
         <v>12</v>
@@ -5971,16 +5971,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B175" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E175">
         <v>12</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B176" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E176">
         <v>12</v>
@@ -6005,16 +6005,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B177" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E177">
         <v>12</v>
@@ -6022,16 +6022,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B178" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -6039,16 +6039,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B179" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E179">
         <v>12</v>
@@ -6056,16 +6056,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B180" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E180">
         <v>12</v>
@@ -6073,16 +6073,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B182" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E182">
         <v>13</v>
@@ -6090,16 +6090,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B183" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6107,16 +6107,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B184" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E184">
         <v>13</v>
@@ -6124,16 +6124,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B185" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E185">
         <v>13</v>
@@ -6141,16 +6141,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E187">
         <v>14</v>
@@ -6158,16 +6158,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -6175,16 +6175,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B189" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E189">
         <v>14</v>
@@ -6192,16 +6192,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B190" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E190">
         <v>14</v>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B191" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E191">
         <v>14</v>
@@ -6226,16 +6226,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B192" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E192">
         <v>14</v>
@@ -6243,16 +6243,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B193" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E193">
         <v>14</v>
@@ -6260,16 +6260,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B194" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E194">
         <v>14</v>
@@ -6277,16 +6277,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B195" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E195">
         <v>14</v>
@@ -6294,16 +6294,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B196" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E196">
         <v>14</v>
@@ -6311,16 +6311,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B197" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E197">
         <v>14</v>
@@ -6328,16 +6328,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B198" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E198">
         <v>14</v>
@@ -6345,16 +6345,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B199" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E199">
         <v>14</v>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B200" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E200">
         <v>14</v>
@@ -6379,16 +6379,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B201" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E201">
         <v>14</v>
@@ -6396,16 +6396,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B202" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E202">
         <v>14</v>
@@ -6413,16 +6413,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B203" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E203">
         <v>14</v>
@@ -6430,16 +6430,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B204" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E204">
         <v>14</v>
@@ -6447,16 +6447,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B205" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E205">
         <v>14</v>
@@ -6464,16 +6464,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B207" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E207">
         <v>16</v>
@@ -6481,16 +6481,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B209" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C209">
         <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E209">
         <v>17</v>
@@ -6498,16 +6498,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B210" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C210">
         <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E210">
         <v>17</v>
@@ -6515,16 +6515,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B211" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C211">
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E211">
         <v>17</v>
@@ -6532,16 +6532,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B212" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E212">
         <v>17</v>
@@ -6549,16 +6549,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B213" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E213">
         <v>17</v>
@@ -6566,16 +6566,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B214" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E214">
         <v>17</v>
@@ -6583,16 +6583,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C216">
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E216">
         <v>18</v>
@@ -6600,16 +6600,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B217" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C217">
         <v>32</v>
       </c>
       <c r="D217" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E217">
         <v>18</v>
@@ -6617,16 +6617,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B218" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C218">
         <v>32</v>
       </c>
       <c r="D218" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E218">
         <v>18</v>
@@ -6634,16 +6634,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B219" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C219">
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E219">
         <v>18</v>
@@ -6651,16 +6651,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B220" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C220">
         <v>32</v>
       </c>
       <c r="D220" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E220">
         <v>18</v>
@@ -6668,16 +6668,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B221" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C221">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E221">
         <v>18</v>
@@ -6685,16 +6685,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B222" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E222">
         <v>18</v>
@@ -6702,16 +6702,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B224" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E224">
         <v>27</v>
@@ -6719,16 +6719,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B226" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -6736,16 +6736,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B228" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="E228">
         <v>29</v>
@@ -6753,16 +6753,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B230" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C230">
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -6770,16 +6770,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B231" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C231">
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="E231">
         <v>30</v>
@@ -6787,16 +6787,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B232" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E232">
         <v>30</v>
@@ -6804,16 +6804,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B233" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="E233">
         <v>30</v>
@@ -6821,16 +6821,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B234" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E234">
         <v>30</v>
@@ -6838,16 +6838,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E235">
         <v>30</v>
@@ -6855,16 +6855,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B237" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E237">
         <v>31</v>
@@ -6872,16 +6872,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B238" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="E238">
         <v>31</v>
@@ -6889,16 +6889,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -6906,16 +6906,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B240" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E240">
         <v>31</v>
@@ -6923,16 +6923,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B241" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E241">
         <v>31</v>
@@ -6940,16 +6940,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B243" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C243">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E243">
         <v>33</v>
@@ -6957,16 +6957,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B244" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E244">
         <v>33</v>
@@ -6974,16 +6974,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B245" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E245">
         <v>33</v>
@@ -6991,16 +6991,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B246" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E246">
         <v>33</v>
@@ -7008,16 +7008,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B247" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E247">
         <v>33</v>
@@ -7025,16 +7025,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B248" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E248">
         <v>33</v>
@@ -7042,16 +7042,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B249" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="E249">
         <v>33</v>
@@ -7059,16 +7059,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B250" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E250">
         <v>33</v>
@@ -7076,16 +7076,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B251" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E251">
         <v>33</v>
@@ -7093,16 +7093,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B253" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E253">
         <v>35</v>

--- a/01-22/addr.xlsx
+++ b/01-22/addr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,18 @@
   </sheets>
   <definedNames>
     <definedName name="变量名">Sheet1!$A:$A</definedName>
-    <definedName name="长度">Sheet1!$C:$C</definedName>
     <definedName name="地址">Sheet1!$B:$B</definedName>
     <definedName name="功能">Sheet1!$D:$D</definedName>
     <definedName name="宏名">Sheet1!$A:$A</definedName>
     <definedName name="页">Sheet1!$E:$E</definedName>
+    <definedName name="长度">Sheet1!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="735">
   <si>
     <t>0x0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2769,6 +2769,198 @@
   </si>
   <si>
     <t>0x0700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始调零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束调零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零界面返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TUN_ZERO_CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零界面CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TUN_ZERO_HCHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零界面HCHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_P_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x70E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x71d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x72c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VERIFY_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的校准值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_REAL_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_VERIFY_EXIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准界面的推出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2900,14 +3092,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ECE9D8"/>
+        <a:sysClr val="window" lastClr="A0A0A4"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2942,7 +3134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2977,7 +3169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3186,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7108,6 +7300,278 @@
         <v>35</v>
       </c>
     </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>687</v>
+      </c>
+      <c r="B255" t="s">
+        <v>688</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>689</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>690</v>
+      </c>
+      <c r="B256" t="s">
+        <v>691</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>692</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>693</v>
+      </c>
+      <c r="B257" t="s">
+        <v>694</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>695</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>696</v>
+      </c>
+      <c r="B258" t="s">
+        <v>697</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>698</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>699</v>
+      </c>
+      <c r="B259" t="s">
+        <v>700</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>701</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>702</v>
+      </c>
+      <c r="B261" t="s">
+        <v>703</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261" t="s">
+        <v>704</v>
+      </c>
+      <c r="E261">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>705</v>
+      </c>
+      <c r="B262" t="s">
+        <v>719</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>712</v>
+      </c>
+      <c r="E262">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>706</v>
+      </c>
+      <c r="B263" t="s">
+        <v>720</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263" t="s">
+        <v>713</v>
+      </c>
+      <c r="E263">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>707</v>
+      </c>
+      <c r="B264" t="s">
+        <v>721</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>714</v>
+      </c>
+      <c r="E264">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>708</v>
+      </c>
+      <c r="B265" t="s">
+        <v>722</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265" t="s">
+        <v>715</v>
+      </c>
+      <c r="E265">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>709</v>
+      </c>
+      <c r="B266" t="s">
+        <v>723</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>716</v>
+      </c>
+      <c r="E266">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>710</v>
+      </c>
+      <c r="B267" t="s">
+        <v>724</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>717</v>
+      </c>
+      <c r="E267">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>711</v>
+      </c>
+      <c r="B268" t="s">
+        <v>725</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268" t="s">
+        <v>718</v>
+      </c>
+      <c r="E268">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>727</v>
+      </c>
+      <c r="B269" t="s">
+        <v>726</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269" t="s">
+        <v>728</v>
+      </c>
+      <c r="E269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>729</v>
+      </c>
+      <c r="B270" t="s">
+        <v>730</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270" t="s">
+        <v>731</v>
+      </c>
+      <c r="E270">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>732</v>
+      </c>
+      <c r="B271" t="s">
+        <v>733</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>734</v>
+      </c>
+      <c r="E271">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-22/addr.xlsx
+++ b/01-22/addr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,11 +11,11 @@
   </sheets>
   <definedNames>
     <definedName name="变量名">Sheet1!$A:$A</definedName>
+    <definedName name="长度">Sheet1!$C:$C</definedName>
     <definedName name="地址">Sheet1!$B:$B</definedName>
     <definedName name="功能">Sheet1!$D:$D</definedName>
     <definedName name="宏名">Sheet1!$A:$A</definedName>
     <definedName name="页">Sheet1!$E:$E</definedName>
-    <definedName name="长度">Sheet1!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2336,10 +2336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x05dc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2348,10 +2344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x05fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2360,10 +2352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x061c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2961,6 +2949,18 @@
   </si>
   <si>
     <t>校准界面的推出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0630</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3092,14 +3092,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A4"/>
+        <a:sysClr val="window" lastClr="ECE9D8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3134,7 +3134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3169,7 +3169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3380,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3922,7 +3922,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -3956,7 +3956,7 @@
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -3973,7 +3973,7 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4330,7 +4330,7 @@
         <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -4347,7 +4347,7 @@
         <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4364,7 +4364,7 @@
         <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -4381,7 +4381,7 @@
         <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4398,7 +4398,7 @@
         <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C63">
         <v>16</v>
@@ -4415,7 +4415,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4432,7 +4432,7 @@
         <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C65">
         <v>16</v>
@@ -4449,7 +4449,7 @@
         <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4466,7 +4466,7 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -4483,7 +4483,7 @@
         <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4500,7 +4500,7 @@
         <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C69">
         <v>16</v>
@@ -4517,7 +4517,7 @@
         <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4534,7 +4534,7 @@
         <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4551,7 +4551,7 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -4874,7 +4874,7 @@
         <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -4891,7 +4891,7 @@
         <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5214,7 +5214,7 @@
         <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -5554,7 +5554,7 @@
         <v>324</v>
       </c>
       <c r="B134" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -5571,7 +5571,7 @@
         <v>325</v>
       </c>
       <c r="B135" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -5894,7 +5894,7 @@
         <v>382</v>
       </c>
       <c r="B155" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -5911,7 +5911,7 @@
         <v>383</v>
       </c>
       <c r="B156" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -6812,13 +6812,13 @@
         <v>577</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>732</v>
       </c>
       <c r="C218">
         <v>32</v>
       </c>
       <c r="D218" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E218">
         <v>18</v>
@@ -6826,16 +6826,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B219" t="s">
-        <v>581</v>
+        <v>733</v>
       </c>
       <c r="C219">
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E219">
         <v>18</v>
@@ -6843,16 +6843,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B220" t="s">
-        <v>584</v>
+        <v>734</v>
       </c>
       <c r="C220">
         <v>32</v>
       </c>
       <c r="D220" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E220">
         <v>18</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B221" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C221">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E221">
         <v>18</v>
@@ -6877,16 +6877,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B222" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E222">
         <v>18</v>
@@ -6894,16 +6894,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B224" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E224">
         <v>27</v>
@@ -6911,16 +6911,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B226" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -6928,16 +6928,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B228" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E228">
         <v>29</v>
@@ -6945,16 +6945,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B230" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C230">
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -6962,16 +6962,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B231" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C231">
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E231">
         <v>30</v>
@@ -6979,16 +6979,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B232" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E232">
         <v>30</v>
@@ -6996,16 +6996,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B233" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E233">
         <v>30</v>
@@ -7013,16 +7013,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B234" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E234">
         <v>30</v>
@@ -7030,16 +7030,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B235" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E235">
         <v>30</v>
@@ -7047,16 +7047,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
+        <v>614</v>
+      </c>
+      <c r="B237" t="s">
+        <v>615</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
         <v>617</v>
-      </c>
-      <c r="B237" t="s">
-        <v>618</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237" t="s">
-        <v>620</v>
       </c>
       <c r="E237">
         <v>31</v>
@@ -7064,16 +7064,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B238" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E238">
         <v>31</v>
@@ -7081,16 +7081,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B239" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -7098,16 +7098,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B240" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E240">
         <v>31</v>
@@ -7115,10 +7115,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B241" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -7132,16 +7132,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B243" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C243">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E243">
         <v>33</v>
@@ -7149,16 +7149,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B244" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E244">
         <v>33</v>
@@ -7166,16 +7166,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B245" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E245">
         <v>33</v>
@@ -7183,16 +7183,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B246" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E246">
         <v>33</v>
@@ -7200,16 +7200,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E247">
         <v>33</v>
@@ -7217,16 +7217,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B248" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E248">
         <v>33</v>
@@ -7234,16 +7234,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B249" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E249">
         <v>33</v>
@@ -7251,16 +7251,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B250" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E250">
         <v>33</v>
@@ -7268,16 +7268,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B251" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E251">
         <v>33</v>
@@ -7285,16 +7285,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B253" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E253">
         <v>35</v>
@@ -7302,16 +7302,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B255" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E255">
         <v>36</v>
@@ -7319,16 +7319,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B256" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C256">
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E256">
         <v>36</v>
@@ -7336,16 +7336,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B257" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C257">
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E257">
         <v>36</v>
@@ -7353,16 +7353,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B258" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C258">
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E258">
         <v>36</v>
@@ -7370,16 +7370,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B259" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C259">
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E259">
         <v>36</v>
@@ -7387,16 +7387,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B261" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C261">
         <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E261">
         <v>25</v>
@@ -7404,16 +7404,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B262" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C262">
         <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E262">
         <v>25</v>
@@ -7421,16 +7421,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B263" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C263">
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E263">
         <v>25</v>
@@ -7438,16 +7438,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B264" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C264">
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E264">
         <v>25</v>
@@ -7455,16 +7455,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B265" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C265">
         <v>5</v>
       </c>
       <c r="D265" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E265">
         <v>25</v>
@@ -7472,16 +7472,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B266" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C266">
         <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E266">
         <v>25</v>
@@ -7489,16 +7489,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B267" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C267">
         <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E267">
         <v>25</v>
@@ -7506,16 +7506,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B268" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C268">
         <v>5</v>
       </c>
       <c r="D268" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E268">
         <v>25</v>
@@ -7523,16 +7523,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B269" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C269">
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E269">
         <v>25</v>
@@ -7540,16 +7540,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B270" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C270">
         <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E270">
         <v>25</v>
@@ -7557,16 +7557,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B271" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C271">
         <v>0</v>
       </c>
       <c r="D271" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E271">
         <v>25</v>
